--- a/package.xlsx
+++ b/package.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Rst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFDCD7-DD00-440B-9808-F8AA33FB1690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91062C7D-E969-4A75-BFF9-FFD24B570505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="1515" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
